--- a/data-ikan.xlsx
+++ b/data-ikan.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/macbook/Project/input-excel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ruang-kerja\e-katalog\input-excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59BA5AD7-9688-5A4D-BB52-61372AA1ABF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B5E2218-8E1F-4CBC-9573-6F8F1554B856}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" xr2:uid="{332B21BA-2D9F-4858-874B-A51052F96E41}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{332B21BA-2D9F-4858-874B-A51052F96E41}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Pompa Air Alkon dan Kelengkapan</t>
   </si>
@@ -54,6 +54,9 @@
   </si>
   <si>
     <t>nama</t>
+  </si>
+  <si>
+    <t>kbki</t>
   </si>
 </sst>
 </file>
@@ -477,19 +480,19 @@
   <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="31.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.33203125" customWidth="1"/>
-    <col min="5" max="5" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="31.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.28515625" customWidth="1"/>
+    <col min="5" max="5" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -497,18 +500,22 @@
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="5"/>
       <c r="E2" s="5"/>
-      <c r="F2" s="4"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F2" s="4">
+        <v>53129</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
@@ -517,7 +524,7 @@
       <c r="E3" s="5"/>
       <c r="F3" s="4"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
@@ -526,7 +533,7 @@
       <c r="E4" s="5"/>
       <c r="F4" s="4"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
@@ -535,7 +542,7 @@
       <c r="E5" s="5"/>
       <c r="F5" s="4"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>4</v>
       </c>
@@ -544,7 +551,7 @@
       <c r="E6" s="5"/>
       <c r="F6" s="4"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="6"/>
       <c r="B7" s="3"/>
       <c r="C7" s="2"/>
@@ -552,7 +559,7 @@
       <c r="E7" s="5"/>
       <c r="F7" s="4"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="6"/>
       <c r="B8" s="3"/>
       <c r="C8" s="2"/>
@@ -560,7 +567,7 @@
       <c r="E8" s="5"/>
       <c r="F8" s="4"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="6"/>
       <c r="B9" s="3"/>
       <c r="C9" s="2"/>
@@ -568,7 +575,7 @@
       <c r="E9" s="5"/>
       <c r="F9" s="4"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="6"/>
       <c r="B10" s="3"/>
       <c r="C10" s="2"/>
@@ -576,7 +583,7 @@
       <c r="E10" s="5"/>
       <c r="F10" s="4"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="6"/>
       <c r="B11" s="3"/>
       <c r="C11" s="2"/>
@@ -584,7 +591,7 @@
       <c r="E11" s="5"/>
       <c r="F11" s="4"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="6"/>
       <c r="B12" s="3"/>
       <c r="C12" s="2"/>
@@ -592,7 +599,7 @@
       <c r="E12" s="5"/>
       <c r="F12" s="4"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="6"/>
       <c r="B13" s="3"/>
       <c r="C13" s="2"/>
@@ -600,7 +607,7 @@
       <c r="E13" s="5"/>
       <c r="F13" s="4"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="6"/>
       <c r="B14" s="3"/>
       <c r="C14" s="2"/>
@@ -608,7 +615,7 @@
       <c r="E14" s="5"/>
       <c r="F14" s="4"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="6"/>
       <c r="B15" s="3"/>
       <c r="C15" s="2"/>
@@ -616,7 +623,7 @@
       <c r="E15" s="5"/>
       <c r="F15" s="4"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="6"/>
       <c r="B16" s="3"/>
       <c r="C16" s="2"/>
@@ -624,7 +631,7 @@
       <c r="E16" s="5"/>
       <c r="F16" s="4"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="6"/>
       <c r="B17" s="3"/>
       <c r="C17" s="2"/>
@@ -632,7 +639,7 @@
       <c r="E17" s="5"/>
       <c r="F17" s="4"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="6"/>
       <c r="B18" s="3"/>
       <c r="C18" s="2"/>
@@ -640,7 +647,7 @@
       <c r="E18" s="5"/>
       <c r="F18" s="4"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="6"/>
       <c r="B19" s="3"/>
       <c r="C19" s="2"/>
@@ -648,7 +655,7 @@
       <c r="E19" s="5"/>
       <c r="F19" s="4"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="6"/>
       <c r="B20" s="3"/>
       <c r="C20" s="2"/>

--- a/data-ikan.xlsx
+++ b/data-ikan.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10212"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ruang-kerja\e-katalog\input-excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/macbook/ruang-kerja/input-excel/selenium-data-excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B5E2218-8E1F-4CBC-9573-6F8F1554B856}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE4C58DA-B397-2A44-91E4-900A7898DCDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{332B21BA-2D9F-4858-874B-A51052F96E41}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="20740" windowHeight="11760" xr2:uid="{332B21BA-2D9F-4858-874B-A51052F96E41}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="8">
   <si>
     <t>Pompa Air Alkon dan Kelengkapan</t>
   </si>
@@ -57,6 +57,9 @@
   </si>
   <si>
     <t>kbki</t>
+  </si>
+  <si>
+    <t>Sarana dan Prasarana Perikanan Budidaya Provinsi Jawa Timur</t>
   </si>
 </sst>
 </file>
@@ -86,7 +89,7 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -480,23 +483,23 @@
   <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="31.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.28515625" customWidth="1"/>
-    <col min="5" max="5" width="6.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="48.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.33203125" customWidth="1"/>
+    <col min="5" max="5" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -504,8 +507,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="7" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="2"/>
@@ -515,43 +521,63 @@
         <v>53129</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
-      <c r="F3" s="4"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+      <c r="F3" s="4">
+        <v>53129</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
-      <c r="F4" s="4"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+      <c r="F4" s="4">
+        <v>53129</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
-      <c r="F5" s="4"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+      <c r="F5" s="4">
+        <v>53129</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
-      <c r="F6" s="4"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F6" s="4">
+        <v>53129</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="6"/>
       <c r="B7" s="3"/>
       <c r="C7" s="2"/>
@@ -559,7 +585,7 @@
       <c r="E7" s="5"/>
       <c r="F7" s="4"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="6"/>
       <c r="B8" s="3"/>
       <c r="C8" s="2"/>
@@ -567,15 +593,14 @@
       <c r="E8" s="5"/>
       <c r="F8" s="4"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="6"/>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B9" s="3"/>
       <c r="C9" s="2"/>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
       <c r="F9" s="4"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="6"/>
       <c r="B10" s="3"/>
       <c r="C10" s="2"/>
@@ -583,7 +608,7 @@
       <c r="E10" s="5"/>
       <c r="F10" s="4"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="6"/>
       <c r="B11" s="3"/>
       <c r="C11" s="2"/>
@@ -591,7 +616,7 @@
       <c r="E11" s="5"/>
       <c r="F11" s="4"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="6"/>
       <c r="B12" s="3"/>
       <c r="C12" s="2"/>
@@ -599,7 +624,7 @@
       <c r="E12" s="5"/>
       <c r="F12" s="4"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="6"/>
       <c r="B13" s="3"/>
       <c r="C13" s="2"/>
@@ -607,7 +632,7 @@
       <c r="E13" s="5"/>
       <c r="F13" s="4"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="6"/>
       <c r="B14" s="3"/>
       <c r="C14" s="2"/>
@@ -615,7 +640,7 @@
       <c r="E14" s="5"/>
       <c r="F14" s="4"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="6"/>
       <c r="B15" s="3"/>
       <c r="C15" s="2"/>
@@ -623,7 +648,7 @@
       <c r="E15" s="5"/>
       <c r="F15" s="4"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="6"/>
       <c r="B16" s="3"/>
       <c r="C16" s="2"/>
@@ -631,7 +656,7 @@
       <c r="E16" s="5"/>
       <c r="F16" s="4"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="6"/>
       <c r="B17" s="3"/>
       <c r="C17" s="2"/>
@@ -639,7 +664,7 @@
       <c r="E17" s="5"/>
       <c r="F17" s="4"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="6"/>
       <c r="B18" s="3"/>
       <c r="C18" s="2"/>
@@ -647,7 +672,7 @@
       <c r="E18" s="5"/>
       <c r="F18" s="4"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="6"/>
       <c r="B19" s="3"/>
       <c r="C19" s="2"/>
@@ -655,7 +680,7 @@
       <c r="E19" s="5"/>
       <c r="F19" s="4"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="6"/>
       <c r="B20" s="3"/>
       <c r="C20" s="2"/>

--- a/data-ikan.xlsx
+++ b/data-ikan.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/macbook/ruang-kerja/input-excel/selenium-data-excel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ruang-kerja\e-katalog\input-excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE4C58DA-B397-2A44-91E4-900A7898DCDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B07B4A6E-B945-4D84-B30C-A5179EF4C0D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="20740" windowHeight="11760" xr2:uid="{332B21BA-2D9F-4858-874B-A51052F96E41}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{332B21BA-2D9F-4858-874B-A51052F96E41}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,23 +37,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
   <si>
     <t>Pompa Air Alkon dan Kelengkapan</t>
   </si>
   <si>
-    <t>Pompa Celup 2" dan Kelengkapannya</t>
-  </si>
-  <si>
-    <t>Pompa Celup 3" dan Kelengkapannya</t>
-  </si>
-  <si>
-    <t>Pompa Celup 4" dan Kelengkapannya</t>
-  </si>
-  <si>
-    <t>Pompa Celup 6" dan Kelengkapannya</t>
-  </si>
-  <si>
     <t>nama</t>
   </si>
   <si>
@@ -60,6 +49,21 @@
   </si>
   <si>
     <t>Sarana dan Prasarana Perikanan Budidaya Provinsi Jawa Timur</t>
+  </si>
+  <si>
+    <t>Pompa Celup 2 dan Kelengkapannya</t>
+  </si>
+  <si>
+    <t>Mistar Muka Air</t>
+  </si>
+  <si>
+    <t>Struktur baja</t>
+  </si>
+  <si>
+    <t>TKDN</t>
+  </si>
+  <si>
+    <t>Keterangan</t>
   </si>
 </sst>
 </file>
@@ -70,7 +74,7 @@
     <numFmt numFmtId="164" formatCode="0_)"/>
     <numFmt numFmtId="165" formatCode="0.00_)"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -85,11 +89,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -161,7 +160,7 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -480,36 +479,37 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4CB6367-EB8F-4C1C-887F-7E56E11A17F3}">
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="48.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.33203125" customWidth="1"/>
-    <col min="5" max="5" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="56.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.28515625" customWidth="1"/>
+    <col min="5" max="5" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>0</v>
@@ -520,13 +520,16 @@
       <c r="F2" s="4">
         <v>53129</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="5"/>
@@ -534,50 +537,32 @@
       <c r="F3" s="4">
         <v>53129</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>2</v>
-      </c>
+      <c r="G3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B4" s="3"/>
       <c r="C4" s="2"/>
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
-      <c r="F4" s="4">
-        <v>53129</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>3</v>
-      </c>
+      <c r="F4" s="4"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B5" s="3"/>
       <c r="C5" s="2"/>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
-      <c r="F5" s="4">
-        <v>53129</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>4</v>
-      </c>
+      <c r="F5" s="4"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B6" s="3"/>
       <c r="C6" s="2"/>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
-      <c r="F6" s="4">
-        <v>53129</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F6" s="4"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="6"/>
       <c r="B7" s="3"/>
       <c r="C7" s="2"/>
@@ -585,7 +570,7 @@
       <c r="E7" s="5"/>
       <c r="F7" s="4"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="6"/>
       <c r="B8" s="3"/>
       <c r="C8" s="2"/>
@@ -593,14 +578,14 @@
       <c r="E8" s="5"/>
       <c r="F8" s="4"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B9" s="3"/>
       <c r="C9" s="2"/>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
       <c r="F9" s="4"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="6"/>
       <c r="B10" s="3"/>
       <c r="C10" s="2"/>
@@ -608,7 +593,7 @@
       <c r="E10" s="5"/>
       <c r="F10" s="4"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="6"/>
       <c r="B11" s="3"/>
       <c r="C11" s="2"/>
@@ -616,7 +601,7 @@
       <c r="E11" s="5"/>
       <c r="F11" s="4"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="6"/>
       <c r="B12" s="3"/>
       <c r="C12" s="2"/>
@@ -624,7 +609,7 @@
       <c r="E12" s="5"/>
       <c r="F12" s="4"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="6"/>
       <c r="B13" s="3"/>
       <c r="C13" s="2"/>
@@ -632,7 +617,7 @@
       <c r="E13" s="5"/>
       <c r="F13" s="4"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="6"/>
       <c r="B14" s="3"/>
       <c r="C14" s="2"/>
@@ -640,7 +625,7 @@
       <c r="E14" s="5"/>
       <c r="F14" s="4"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="6"/>
       <c r="B15" s="3"/>
       <c r="C15" s="2"/>
@@ -648,7 +633,7 @@
       <c r="E15" s="5"/>
       <c r="F15" s="4"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="6"/>
       <c r="B16" s="3"/>
       <c r="C16" s="2"/>
@@ -656,7 +641,7 @@
       <c r="E16" s="5"/>
       <c r="F16" s="4"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="6"/>
       <c r="B17" s="3"/>
       <c r="C17" s="2"/>
@@ -664,7 +649,7 @@
       <c r="E17" s="5"/>
       <c r="F17" s="4"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="6"/>
       <c r="B18" s="3"/>
       <c r="C18" s="2"/>
@@ -672,7 +657,7 @@
       <c r="E18" s="5"/>
       <c r="F18" s="4"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="6"/>
       <c r="B19" s="3"/>
       <c r="C19" s="2"/>
@@ -680,7 +665,7 @@
       <c r="E19" s="5"/>
       <c r="F19" s="4"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="6"/>
       <c r="B20" s="3"/>
       <c r="C20" s="2"/>
@@ -692,4 +677,39 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97859F92-A8B8-4CB4-9D01-C745FB9E23C0}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/data-ikan.xlsx
+++ b/data-ikan.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10212"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ruang-kerja\e-katalog\input-excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/macbook/ruang-kerja/input-excel/selenium-data-excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B07B4A6E-B945-4D84-B30C-A5179EF4C0D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAEED94A-BFE6-A04F-8342-722EA7B0D445}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{332B21BA-2D9F-4858-874B-A51052F96E41}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="20740" windowHeight="11760" xr2:uid="{332B21BA-2D9F-4858-874B-A51052F96E41}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,14 +37,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="36">
   <si>
     <t>Pompa Air Alkon dan Kelengkapan</t>
   </si>
   <si>
-    <t>nama</t>
-  </si>
-  <si>
     <t>kbki</t>
   </si>
   <si>
@@ -57,13 +54,97 @@
     <t>Mistar Muka Air</t>
   </si>
   <si>
-    <t>Struktur baja</t>
-  </si>
-  <si>
-    <t>TKDN</t>
-  </si>
-  <si>
-    <t>Keterangan</t>
+    <t>Pengadaan Barang Peralatan/Mesin/Perlengkapan Budidaya</t>
+  </si>
+  <si>
+    <t>Pengadaan Barang Sarana dan Prasana Laboratorium Perikanan Budidaya</t>
+  </si>
+  <si>
+    <t>Struktur Baja</t>
+  </si>
+  <si>
+    <t>Pompa Celup 3 dan Kelengkapannya</t>
+  </si>
+  <si>
+    <t>Pompa Celup 4 dan Kelengkapannya</t>
+  </si>
+  <si>
+    <t>Keterangan Lainya</t>
+  </si>
+  <si>
+    <t>Nilai TKDN Pekerjaan Konstruksi</t>
+  </si>
+  <si>
+    <t>Nama Perusahaan</t>
+  </si>
+  <si>
+    <t>Lokasi Tempat Usaha/Kantor</t>
+  </si>
+  <si>
+    <t>Kode KBLI</t>
+  </si>
+  <si>
+    <t>Nomor Induk Berusaha (NIB)</t>
+  </si>
+  <si>
+    <t>Nomor SBUJK</t>
+  </si>
+  <si>
+    <t>Jenis Kualifikasi Usaha</t>
+  </si>
+  <si>
+    <t>Lingkup Pekerjaan</t>
+  </si>
+  <si>
+    <t>Etalase produk</t>
+  </si>
+  <si>
+    <t>nama produk</t>
+  </si>
+  <si>
+    <t>no produk</t>
+  </si>
+  <si>
+    <t>unit pengukuran</t>
+  </si>
+  <si>
+    <t>berlaku sampai</t>
+  </si>
+  <si>
+    <t>jumlah stok produk</t>
+  </si>
+  <si>
+    <t>jumlah stok inden</t>
+  </si>
+  <si>
+    <t>kategori produk</t>
+  </si>
+  <si>
+    <t>Testing no produk 1</t>
+  </si>
+  <si>
+    <t>Testing no produk 2</t>
+  </si>
+  <si>
+    <t>Testing no produk 3</t>
+  </si>
+  <si>
+    <t>Testing no produk 4</t>
+  </si>
+  <si>
+    <t>unit</t>
+  </si>
+  <si>
+    <t>mm</t>
+  </si>
+  <si>
+    <t>ft</t>
+  </si>
+  <si>
+    <t>set</t>
+  </si>
+  <si>
+    <t>31-12-2023</t>
   </si>
 </sst>
 </file>
@@ -74,7 +155,7 @@
     <numFmt numFmtId="164" formatCode="0_)"/>
     <numFmt numFmtId="165" formatCode="0.00_)"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -95,6 +176,27 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -104,7 +206,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -142,13 +244,33 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1"/>
@@ -160,9 +282,11 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hipertaut" xfId="1" builtinId="8"/>
@@ -479,90 +603,177 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4CB6367-EB8F-4C1C-887F-7E56E11A17F3}">
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="G2" sqref="G2:G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="56.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.28515625" customWidth="1"/>
-    <col min="5" max="5" width="6.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="56.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="56.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>19</v>
+      </c>
       <c r="B1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1" t="s">
+      <c r="I1" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="B2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="F2">
+        <v>1000</v>
+      </c>
+      <c r="G2">
+        <v>100</v>
+      </c>
+      <c r="H2" s="4">
+        <v>53129</v>
+      </c>
+      <c r="I2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="4">
+      <c r="C3" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="F3">
+        <v>1000</v>
+      </c>
+      <c r="G3">
+        <v>100</v>
+      </c>
+      <c r="H3" s="4">
         <v>53129</v>
       </c>
-      <c r="G2" t="s">
+      <c r="I3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="F4">
+        <v>1000</v>
+      </c>
+      <c r="G4">
+        <v>100</v>
+      </c>
+      <c r="H4" s="4">
+        <v>53129</v>
+      </c>
+      <c r="I4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="F5">
+        <v>1000</v>
+      </c>
+      <c r="G5">
+        <v>100</v>
+      </c>
+      <c r="H5" s="4">
+        <v>53129</v>
+      </c>
+      <c r="I5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="4">
-        <v>53129</v>
-      </c>
-      <c r="G3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B4" s="3"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="4"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B5" s="3"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="4"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B6" s="3"/>
       <c r="C6" s="2"/>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
       <c r="F6" s="4"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="6"/>
       <c r="B7" s="3"/>
       <c r="C7" s="2"/>
@@ -570,7 +781,7 @@
       <c r="E7" s="5"/>
       <c r="F7" s="4"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="6"/>
       <c r="B8" s="3"/>
       <c r="C8" s="2"/>
@@ -578,14 +789,14 @@
       <c r="E8" s="5"/>
       <c r="F8" s="4"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B9" s="3"/>
       <c r="C9" s="2"/>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
       <c r="F9" s="4"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="6"/>
       <c r="B10" s="3"/>
       <c r="C10" s="2"/>
@@ -593,7 +804,7 @@
       <c r="E10" s="5"/>
       <c r="F10" s="4"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="6"/>
       <c r="B11" s="3"/>
       <c r="C11" s="2"/>
@@ -601,7 +812,7 @@
       <c r="E11" s="5"/>
       <c r="F11" s="4"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="6"/>
       <c r="B12" s="3"/>
       <c r="C12" s="2"/>
@@ -609,7 +820,7 @@
       <c r="E12" s="5"/>
       <c r="F12" s="4"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="6"/>
       <c r="B13" s="3"/>
       <c r="C13" s="2"/>
@@ -617,7 +828,7 @@
       <c r="E13" s="5"/>
       <c r="F13" s="4"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="6"/>
       <c r="B14" s="3"/>
       <c r="C14" s="2"/>
@@ -625,7 +836,7 @@
       <c r="E14" s="5"/>
       <c r="F14" s="4"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="6"/>
       <c r="B15" s="3"/>
       <c r="C15" s="2"/>
@@ -633,7 +844,7 @@
       <c r="E15" s="5"/>
       <c r="F15" s="4"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="6"/>
       <c r="B16" s="3"/>
       <c r="C16" s="2"/>
@@ -641,7 +852,7 @@
       <c r="E16" s="5"/>
       <c r="F16" s="4"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="6"/>
       <c r="B17" s="3"/>
       <c r="C17" s="2"/>
@@ -649,7 +860,7 @@
       <c r="E17" s="5"/>
       <c r="F17" s="4"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="6"/>
       <c r="B18" s="3"/>
       <c r="C18" s="2"/>
@@ -657,7 +868,7 @@
       <c r="E18" s="5"/>
       <c r="F18" s="4"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="6"/>
       <c r="B19" s="3"/>
       <c r="C19" s="2"/>
@@ -665,7 +876,7 @@
       <c r="E19" s="5"/>
       <c r="F19" s="4"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="6"/>
       <c r="B20" s="3"/>
       <c r="C20" s="2"/>
@@ -674,6 +885,7 @@
       <c r="F20" s="4"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
@@ -681,32 +893,56 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97859F92-A8B8-4CB4-9D01-C745FB9E23C0}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A2:J2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="17.83203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" s="7" t="s">
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/data-ikan.xlsx
+++ b/data-ikan.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/macbook/ruang-kerja/input-excel/selenium-data-excel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ruang-kerja\e-katalog\input-excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAEED94A-BFE6-A04F-8342-722EA7B0D445}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41D4B70D-BB82-4A1A-AEEB-6B6F6C4E2FD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="20740" windowHeight="11760" xr2:uid="{332B21BA-2D9F-4858-874B-A51052F96E41}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{332B21BA-2D9F-4858-874B-A51052F96E41}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="48">
   <si>
     <t>Pompa Air Alkon dan Kelengkapan</t>
   </si>
@@ -145,6 +145,42 @@
   </si>
   <si>
     <t>31-12-2023</t>
+  </si>
+  <si>
+    <t>12-12-2023</t>
+  </si>
+  <si>
+    <t>Masa Pemeliharaan</t>
+  </si>
+  <si>
+    <t>Gambar Teknis</t>
+  </si>
+  <si>
+    <t>Spesifikasi Teknis</t>
+  </si>
+  <si>
+    <t>Nomor Surat Perjanjian Penyediaan Material</t>
+  </si>
+  <si>
+    <t>Masa Berlaku Surat Perjanjian Penyediaan Material</t>
+  </si>
+  <si>
+    <t>Peralatan Kerja Utama</t>
+  </si>
+  <si>
+    <t>Personil Manajerial</t>
+  </si>
+  <si>
+    <t>Pengalaman Kerja Perusahaan</t>
+  </si>
+  <si>
+    <t>Dokumen Rencana Keselamatan Konstruksi (RKK)</t>
+  </si>
+  <si>
+    <t>Sisa Kemampuan Paket (SKP)</t>
+  </si>
+  <si>
+    <t>Komponen Biaya</t>
   </si>
 </sst>
 </file>
@@ -283,8 +319,8 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
@@ -605,23 +641,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4CB6367-EB8F-4C1C-887F-7E56E11A17F3}">
   <dimension ref="A1:I20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="56.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="56.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="56.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="56.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>19</v>
       </c>
@@ -650,7 +686,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -664,7 +700,7 @@
         <v>31</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F2">
         <v>1000</v>
@@ -679,7 +715,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -708,7 +744,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -737,7 +773,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -766,14 +802,14 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B6" s="3"/>
       <c r="C6" s="2"/>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
       <c r="F6" s="4"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="6"/>
       <c r="B7" s="3"/>
       <c r="C7" s="2"/>
@@ -781,7 +817,7 @@
       <c r="E7" s="5"/>
       <c r="F7" s="4"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="6"/>
       <c r="B8" s="3"/>
       <c r="C8" s="2"/>
@@ -789,14 +825,14 @@
       <c r="E8" s="5"/>
       <c r="F8" s="4"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B9" s="3"/>
       <c r="C9" s="2"/>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
       <c r="F9" s="4"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="6"/>
       <c r="B10" s="3"/>
       <c r="C10" s="2"/>
@@ -804,7 +840,7 @@
       <c r="E10" s="5"/>
       <c r="F10" s="4"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="6"/>
       <c r="B11" s="3"/>
       <c r="C11" s="2"/>
@@ -812,7 +848,7 @@
       <c r="E11" s="5"/>
       <c r="F11" s="4"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="6"/>
       <c r="B12" s="3"/>
       <c r="C12" s="2"/>
@@ -820,7 +856,7 @@
       <c r="E12" s="5"/>
       <c r="F12" s="4"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="6"/>
       <c r="B13" s="3"/>
       <c r="C13" s="2"/>
@@ -828,7 +864,7 @@
       <c r="E13" s="5"/>
       <c r="F13" s="4"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="6"/>
       <c r="B14" s="3"/>
       <c r="C14" s="2"/>
@@ -836,7 +872,7 @@
       <c r="E14" s="5"/>
       <c r="F14" s="4"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="6"/>
       <c r="B15" s="3"/>
       <c r="C15" s="2"/>
@@ -844,7 +880,7 @@
       <c r="E15" s="5"/>
       <c r="F15" s="4"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="6"/>
       <c r="B16" s="3"/>
       <c r="C16" s="2"/>
@@ -852,7 +888,7 @@
       <c r="E16" s="5"/>
       <c r="F16" s="4"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="6"/>
       <c r="B17" s="3"/>
       <c r="C17" s="2"/>
@@ -860,7 +896,7 @@
       <c r="E17" s="5"/>
       <c r="F17" s="4"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="6"/>
       <c r="B18" s="3"/>
       <c r="C18" s="2"/>
@@ -868,7 +904,7 @@
       <c r="E18" s="5"/>
       <c r="F18" s="4"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="6"/>
       <c r="B19" s="3"/>
       <c r="C19" s="2"/>
@@ -876,7 +912,7 @@
       <c r="E19" s="5"/>
       <c r="F19" s="4"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="6"/>
       <c r="B20" s="3"/>
       <c r="C20" s="2"/>
@@ -892,28 +928,22 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97859F92-A8B8-4CB4-9D01-C745FB9E23C0}">
-  <dimension ref="A2:J2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C4DDC65-33C5-4D8A-8177-3A4BF7C22B88}">
+  <sheetPr codeName="Lembar2"/>
+  <dimension ref="A2:U2"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="U2" sqref="U2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.83203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="17.83203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="41.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="47.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="20.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>7</v>
       </c>
@@ -943,6 +973,39 @@
       </c>
       <c r="J2" t="s">
         <v>18</v>
+      </c>
+      <c r="K2" t="s">
+        <v>37</v>
+      </c>
+      <c r="L2" t="s">
+        <v>38</v>
+      </c>
+      <c r="M2" t="s">
+        <v>39</v>
+      </c>
+      <c r="N2" t="s">
+        <v>40</v>
+      </c>
+      <c r="O2" t="s">
+        <v>41</v>
+      </c>
+      <c r="P2" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>43</v>
+      </c>
+      <c r="R2" t="s">
+        <v>44</v>
+      </c>
+      <c r="S2" t="s">
+        <v>45</v>
+      </c>
+      <c r="T2" t="s">
+        <v>46</v>
+      </c>
+      <c r="U2" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
